--- a/acm_batch_invoice/acm_batch_invoice_import_export/acm_batch_invoice.xlsx
+++ b/acm_batch_invoice/acm_batch_invoice_import_export/acm_batch_invoice.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Batch Invoice Number</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t xml:space="preserve">Electric From (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water To</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water From</t>
   </si>
   <si>
     <t xml:space="preserve">Invoice Number</t>
@@ -97,7 +103,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,7 +113,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
     <fill>
@@ -151,7 +163,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -192,11 +204,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -234,7 +250,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -283,7 +299,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.38"/>
@@ -344,13 +360,13 @@
         <v>10</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="ALU7" s="0"/>
       <c r="ALV7" s="0"/>
@@ -369,17 +385,22 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
